--- a/Recursos.xlsx
+++ b/Recursos.xlsx
@@ -464,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,20 +510,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>07/07/2025</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>11:15</t>
-        </is>
+      <c r="A2" s="5" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0.46875</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -540,22 +534,17 @@
           <t>ENLACE MEDIA</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>07/07/2025</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+      <c r="A3" s="5" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -579,369 +568,464 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>07/07/2025</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+      <c r="A4" s="5" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.3958333333333333</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>MAGALY GIOCONDA MOLINA NÚÑEZ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3° BÁSICO A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ENLACE BASICA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>umaximo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JENNIFER SAMANTHA GONZÁLEZ RIVERA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8° BÁSICO B</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ENLACE BASICA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>cs. nat</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LETICIA PAOLA LÓPEZ IGLESIAS</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5° BÁSICO A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ENLACE MEDIA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>umaximo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PILAR ALEJANDRA GONZÁLEZ OLIVARES</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1° BÁSICO A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ENLACE MEDIA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>umaximo</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PILAR ALEJANDRA GONZÁLEZ OLIVARES</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6° BÁSICO A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ENLACE BASICA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>umaximo</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>JENNIFER SAMANTHA GONZÁLEZ RIVERA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8° BÁSICO A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ENLACE MEDIA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cs. Nat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PILAR ALEJANDRA GONZÁLEZ OLIVARES</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>6° BÁSICO B</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ENLACE BASICA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>umaximo</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>MARTA YOLANDA PONCE LÓPEZ</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4° BÁSICO B</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5° BÁSICO B</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TABLETS</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ALEJANDRA LORENA MUÑOZ TRUJILLO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1° BÁSICO A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>ENLACE BASICA</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>umaximo-letrapps</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>08/07/2025</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MAGALY GIOCONDA MOLINA NÚÑEZ</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3° BÁSICO A</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ALEJANDRA LORENA MUÑOZ TRUJILLO</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1° BÁSICO A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>LAPICES 3D</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ALEJANDRA LORENA MUÑOZ TRUJILLO</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1° BÁSICO A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ENLACE MEDIA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ALEJANDRA LORENA MUÑOZ TRUJILLO</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1° BÁSICO A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ENLACE MEDIA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ALEJANDRA LORENA MUÑOZ TRUJILLO</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1° BÁSICO A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ENLACE MEDIA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ALEJANDRA LORENA MUÑOZ TRUJILLO</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1° BÁSICO A</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>ENLACE BASICA</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>umaximo</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>08/07/2025</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>12:15</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MAGALY GIOCONDA MOLINA NÚÑEZ</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3° BÁSICO A</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ALEJANDRA LORENA MUÑOZ TRUJILLO</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1° BÁSICO A</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>ENLACE BASICA</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>letrapps</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>10/07/2025</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>JENNIFER SAMANTHA GONZÁLEZ RIVERA</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8° BÁSICO B</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ALEJANDRA LORENA MUÑOZ TRUJILLO</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1° BÁSICO A</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>ENLACE BASICA</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>cs. nat</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>10/07/2025</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>LETICIA PAOLA LÓPEZ IGLESIAS</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5° BÁSICO A</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>ENLACE MEDIA</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>umaximo</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>10/07/2025</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>11:15</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>PILAR ALEJANDRA GONZÁLEZ OLIVARES</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1° BÁSICO A</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>ENLACE MEDIA</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>umaximo</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>10/07/2025</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>PILAR ALEJANDRA GONZÁLEZ OLIVARES</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>6° BÁSICO A</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>ENLACE BASICA</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>umaximo</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10/07/2025</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>JENNIFER SAMANTHA GONZÁLEZ RIVERA</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8° BÁSICO A</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>ENLACE MEDIA</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Cs. Nat.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>10/07/2025</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>PILAR ALEJANDRA GONZÁLEZ OLIVARES</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6° BÁSICO B</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>ENLACE BASICA</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>umaximo</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>10/07/2025</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>MARTA YOLANDA PONCE LÓPEZ</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5° BÁSICO B</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>TABLETS</t>
-        </is>
-      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Recursos.xlsx
+++ b/Recursos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reservas" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,13 +20,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -39,9 +37,6 @@
       <b val="1"/>
       <sz val="11"/>
     </font>
-    <font>
-      <b val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -51,7 +46,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,29 +69,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -174,9 +158,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,9 +198,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,9 +233,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,9 +285,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,522 +528,190 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B2" s="6" t="n">
-        <v>0.40625</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>0.46875</v>
+      <c r="A2" s="3" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0.3958333333333333</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JOSEFINA ISABEL ESPINOSA BERRIOS</t>
+          <t>ALEXIS FERNANDO SARZOSA VÉLIZ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1° MEDIO A</t>
+          <t>3° BÁSICO A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ENLACE MEDIA</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>ENLACE BASICA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>umaximo</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B3" s="6" t="n">
-        <v>0.4791666666666667</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>0.5416666666666666</v>
+      <c r="A3" s="3" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.3958333333333333</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PILAR ALEJANDRA GONZÁLEZ OLIVARES</t>
+          <t>ANDREA VICENTA DOSSI SAAVEDRA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1° BÁSICO A</t>
+          <t xml:space="preserve"> 2° BÁSICO B</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ENLACE MEDIA</t>
+          <t>MICROFONOS</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>letrapps</t>
+          <t>lentes</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B4" s="6" t="n">
+      <c r="A4" s="3" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B4" s="4" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="4" t="n">
         <v>0.3958333333333333</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MAGALY GIOCONDA MOLINA NÚÑEZ</t>
+          <t>ANDREA VICENTA DOSSI SAAVEDRA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3° BÁSICO A</t>
+          <t xml:space="preserve"> 2° BÁSICO B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ENLACE BASICA</t>
+          <t>MOVIL 3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>umaximo</t>
+          <t>vr</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B5" s="6" t="n">
+      <c r="A5" s="3" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B5" s="4" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="4" t="n">
         <v>0.3958333333333333</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>JENNIFER SAMANTHA GONZÁLEZ RIVERA</t>
+          <t>ANDREA VICENTA DOSSI SAAVEDRA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8° BÁSICO B</t>
+          <t xml:space="preserve"> 3° BÁSICO A</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ENLACE BASICA</t>
+          <t>LAPICES 3D</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>cs. nat</t>
+          <t>test 2334</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B6" s="6" t="n">
+      <c r="A6" s="3" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B6" s="4" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="4" t="n">
         <v>0.3958333333333333</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LETICIA PAOLA LÓPEZ IGLESIAS</t>
+          <t>ALEXIS FERNANDO SARZOSA VÉLIZ</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5° BÁSICO A</t>
+          <t xml:space="preserve"> 2° BÁSICO A</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ENLACE MEDIA</t>
+          <t>LAPICES 3D</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>umaximo</t>
+          <t>alex</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B7" s="6" t="n">
-        <v>0.40625</v>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>0.46875</v>
+      <c r="A7" s="3" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.3958333333333333</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PILAR ALEJANDRA GONZÁLEZ OLIVARES</t>
+          <t>BRENDA LISSETTE PÉREZ ESCOBAR</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1° BÁSICO A</t>
+          <t xml:space="preserve"> 2° MEDIO A</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ENLACE MEDIA</t>
+          <t>LENTES VR</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>umaximo</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B8" s="6" t="n">
-        <v>0.4791666666666667</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>PILAR ALEJANDRA GONZÁLEZ OLIVARES</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6° BÁSICO A</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>ENLACE BASICA</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>umaximo</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B9" s="6" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0.6458333333333334</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>JENNIFER SAMANTHA GONZÁLEZ RIVERA</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>8° BÁSICO A</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>ENLACE MEDIA</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Cs. Nat.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B10" s="6" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>0.6458333333333334</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>PILAR ALEJANDRA GONZÁLEZ OLIVARES</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>6° BÁSICO B</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>ENLACE BASICA</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>umaximo</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B11" s="6" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>0.6458333333333334</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>MARTA YOLANDA PONCE LÓPEZ</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5° BÁSICO B</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>TABLETS</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B12" s="6" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ALEJANDRA LORENA MUÑOZ TRUJILLO</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1° BÁSICO A</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>ENLACE BASICA</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B13" s="6" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ALEJANDRA LORENA MUÑOZ TRUJILLO</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1° BÁSICO A</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>LAPICES 3D</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>0.6458333333333334</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ALEJANDRA LORENA MUÑOZ TRUJILLO</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1° BÁSICO A</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>ENLACE MEDIA</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>0.65625</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ALEJANDRA LORENA MUÑOZ TRUJILLO</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1° BÁSICO A</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>ENLACE MEDIA</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>0.7708333333333334</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ALEJANDRA LORENA MUÑOZ TRUJILLO</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1° BÁSICO A</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>ENLACE MEDIA</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C17" s="6" t="n">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ALEJANDRA LORENA MUÑOZ TRUJILLO</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1° BÁSICO A</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>ENLACE BASICA</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>0.40625</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ALEJANDRA LORENA MUÑOZ TRUJILLO</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1° BÁSICO A</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>ENLACE BASICA</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B19" s="6" t="n">
-        <v>0.4791666666666667</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>ALEJANDRA LORENA MUÑOZ TRUJILLO</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1° BÁSICO A</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>ENLACE BASICA</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>alex2</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1044,7 +730,7 @@
       <selection activeCell="A2" sqref="A2:A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1456,107 +1142,107 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A1" sqref="A1:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>8:00 a 8:45</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8:00 a 8:45</t>
+          <t>8:45 a 9:30</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8:45 a 9:30</t>
+          <t>8:00 a 9:30</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8:00 a 9:30</t>
+          <t>9:45 a 10:30</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>9:45 a 10:30</t>
+          <t>10:30 a 11:15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10:30 a 11:15</t>
+          <t>9:45 a 11:15</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>9:45 a 11:15</t>
+          <t>11:30 a 12:15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11:30 a 12:15</t>
+          <t>12:15 a 13:00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12:15 a 13:00</t>
+          <t>11:30 a 13:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11:30 a 13:00</t>
+          <t>14:00 a 14:45</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>14:00 a 14:45</t>
+          <t>14:45 a 15:30</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14:45 a 15:30</t>
+          <t>14:00 a 15:30</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>14:00 a 15:30</t>
+          <t>15:45 a 16:30</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
-        <is>
-          <t>15:45 a 16:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
         <is>
           <t>17:00 a 18:30</t>
         </is>
@@ -1579,7 +1265,7 @@
       <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1770,10 +1456,10 @@
   <dimension ref="A2:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1897,30 +1583,34 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="11.88671875" customWidth="1" min="2" max="2"/>
+    <col width="14.33203125" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Recurso</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>FechaInicio</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>HoraInicio</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>FechaFin</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>HoraInicio</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>HoraFin</t>
         </is>
@@ -1932,16 +1622,16 @@
           <t>ARDUINO</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>45825</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>45825</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="B2" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>08:00:00</t>
         </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45853</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
